--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H2">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I2">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J2">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>99.67025207171463</v>
+        <v>115.3810875415965</v>
       </c>
       <c r="R2">
-        <v>99.67025207171463</v>
+        <v>461.524350166386</v>
       </c>
       <c r="S2">
-        <v>0.02699743792240249</v>
+        <v>0.02656773488830085</v>
       </c>
       <c r="T2">
-        <v>0.02699743792240249</v>
+        <v>0.01482750923993832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H3">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I3">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J3">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>25.49813790952867</v>
+        <v>27.586943793591</v>
       </c>
       <c r="R3">
-        <v>25.49813790952867</v>
+        <v>165.521662761546</v>
       </c>
       <c r="S3">
-        <v>0.006906618384531145</v>
+        <v>0.006352190161341243</v>
       </c>
       <c r="T3">
-        <v>0.006906618384531145</v>
+        <v>0.00531775622049406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H4">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I4">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J4">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>4.971208848605122</v>
+        <v>5.202331392492001</v>
       </c>
       <c r="R4">
-        <v>4.971208848605122</v>
+        <v>31.213988354952</v>
       </c>
       <c r="S4">
-        <v>0.0013465392080372</v>
+        <v>0.001197892689189503</v>
       </c>
       <c r="T4">
-        <v>0.0013465392080372</v>
+        <v>0.001002819679138322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H5">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I5">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J5">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>7.064342637619582</v>
+        <v>7.420915255260002</v>
       </c>
       <c r="R5">
-        <v>7.064342637619582</v>
+        <v>44.52549153156001</v>
       </c>
       <c r="S5">
-        <v>0.001913501248943262</v>
+        <v>0.00170874545673889</v>
       </c>
       <c r="T5">
-        <v>0.001913501248943262</v>
+        <v>0.001430481700172459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H6">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I6">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J6">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>74.75633084034607</v>
+        <v>83.18191528329803</v>
       </c>
       <c r="R6">
-        <v>74.75633084034607</v>
+        <v>499.0914916997881</v>
       </c>
       <c r="S6">
-        <v>0.02024906488363921</v>
+        <v>0.01915352957607582</v>
       </c>
       <c r="T6">
-        <v>0.02024906488363921</v>
+        <v>0.01603443827413505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H7">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I7">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J7">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>12.20683275638101</v>
+        <v>12.715763856315</v>
       </c>
       <c r="R7">
-        <v>12.20683275638101</v>
+        <v>50.86305542526001</v>
       </c>
       <c r="S7">
-        <v>0.003306434996596835</v>
+        <v>0.002927941227066549</v>
       </c>
       <c r="T7">
-        <v>0.003306434996596835</v>
+        <v>0.001634090214346541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H8">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J8">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>1381.558597458466</v>
+        <v>1682.3291506852</v>
       </c>
       <c r="R8">
-        <v>1381.558597458466</v>
+        <v>10093.9749041112</v>
       </c>
       <c r="S8">
-        <v>0.3742194054471676</v>
+        <v>0.3873743593736825</v>
       </c>
       <c r="T8">
-        <v>0.3742194054471676</v>
+        <v>0.3242916784443915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H9">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J9">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>353.4371682209085</v>
+        <v>402.2350691185913</v>
       </c>
       <c r="R9">
-        <v>353.4371682209085</v>
+        <v>3620.115622067322</v>
       </c>
       <c r="S9">
-        <v>0.09573466315353681</v>
+        <v>0.09261894567658217</v>
       </c>
       <c r="T9">
-        <v>0.09573466315353681</v>
+        <v>0.116304367941793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H10">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J10">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>68.9073839164201</v>
+        <v>75.853278380296</v>
       </c>
       <c r="R10">
-        <v>68.9073839164201</v>
+        <v>682.679505422664</v>
       </c>
       <c r="S10">
-        <v>0.01866477490535662</v>
+        <v>0.01746603220124494</v>
       </c>
       <c r="T10">
-        <v>0.01866477490535662</v>
+        <v>0.02193261671008646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H11">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J11">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>97.9209252864474</v>
+        <v>108.2016327345467</v>
       </c>
       <c r="R11">
-        <v>97.9209252864474</v>
+        <v>973.8146946109201</v>
       </c>
       <c r="S11">
-        <v>0.02652360204550246</v>
+        <v>0.02491458829365229</v>
       </c>
       <c r="T11">
-        <v>0.02652360204550246</v>
+        <v>0.03128599038626149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H12">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J12">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>1036.219427965502</v>
+        <v>1212.844876682835</v>
       </c>
       <c r="R12">
-        <v>1036.219427965502</v>
+        <v>10915.60389014552</v>
       </c>
       <c r="S12">
-        <v>0.2806782274450087</v>
+        <v>0.2792705618477276</v>
       </c>
       <c r="T12">
-        <v>0.2806782274450087</v>
+        <v>0.3506883601749067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H13">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J13">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>169.2024891256571</v>
+        <v>185.4038704653034</v>
       </c>
       <c r="R13">
-        <v>169.2024891256571</v>
+        <v>1112.42322279182</v>
       </c>
       <c r="S13">
-        <v>0.04583146527209667</v>
+        <v>0.04269123287654265</v>
       </c>
       <c r="T13">
-        <v>0.04583146527209667</v>
+        <v>0.03573910154192556</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H14">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I14">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J14">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>2.144738727851108</v>
+        <v>1.1209483492285</v>
       </c>
       <c r="R14">
-        <v>2.144738727851108</v>
+        <v>6.725690095370999</v>
       </c>
       <c r="S14">
-        <v>0.0005809401447411899</v>
+        <v>0.0002581103992025103</v>
       </c>
       <c r="T14">
-        <v>0.0005809401447411899</v>
+        <v>0.0002160779425790271</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H15">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I15">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J15">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>0.5486776919487111</v>
+        <v>0.2680121999589999</v>
       </c>
       <c r="R15">
-        <v>0.5486776919487111</v>
+        <v>2.412109799631</v>
       </c>
       <c r="S15">
-        <v>0.0001486189873096162</v>
+        <v>6.171268816281484E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001486189873096162</v>
+        <v>7.749446010569199E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H16">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I16">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J16">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>0.1069721799656737</v>
+        <v>0.050541600108</v>
       </c>
       <c r="R16">
-        <v>0.1069721799656737</v>
+        <v>0.454874400972</v>
       </c>
       <c r="S16">
-        <v>2.897529330987737E-05</v>
+        <v>1.16377463682319E-05</v>
       </c>
       <c r="T16">
-        <v>2.897529330987737E-05</v>
+        <v>1.461386464439459E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H17">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I17">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J17">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>0.1520129519769952</v>
+        <v>0.07209554774000002</v>
       </c>
       <c r="R17">
-        <v>0.1520129519769952</v>
+        <v>0.6488599296600001</v>
       </c>
       <c r="S17">
-        <v>4.117537729760333E-05</v>
+        <v>1.660077435387861E-05</v>
       </c>
       <c r="T17">
-        <v>4.117537729760333E-05</v>
+        <v>2.084608666691342E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H18">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I18">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J18">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>1.608632411102742</v>
+        <v>0.8081275069353335</v>
       </c>
       <c r="R18">
-        <v>1.608632411102742</v>
+        <v>7.273147562418001</v>
       </c>
       <c r="S18">
-        <v>0.0004357263351502609</v>
+        <v>0.0001860800397852132</v>
       </c>
       <c r="T18">
-        <v>0.0004357263351502609</v>
+        <v>0.0002336662467458304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H19">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I19">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J19">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>0.2626708211611072</v>
+        <v>0.123535969435</v>
       </c>
       <c r="R19">
-        <v>0.2626708211611072</v>
+        <v>0.74121581661</v>
       </c>
       <c r="S19">
-        <v>7.11490042507473E-05</v>
+        <v>2.844548404811217E-05</v>
       </c>
       <c r="T19">
-        <v>7.11490042507473E-05</v>
+        <v>2.381322754825615E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H20">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I20">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J20">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>55.13886606856644</v>
+        <v>2.498596240699</v>
       </c>
       <c r="R20">
-        <v>55.13886606856644</v>
+        <v>14.991577444194</v>
       </c>
       <c r="S20">
-        <v>0.0149353300794976</v>
+        <v>0.0005753286256022202</v>
       </c>
       <c r="T20">
-        <v>0.0149353300794976</v>
+        <v>0.0004816381909099695</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H21">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I21">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J21">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>14.10589801839508</v>
+        <v>0.597399760426</v>
       </c>
       <c r="R21">
-        <v>14.10589801839508</v>
+        <v>5.376597843833999</v>
       </c>
       <c r="S21">
-        <v>0.003820830169239986</v>
+        <v>0.0001375577124076811</v>
       </c>
       <c r="T21">
-        <v>0.003820830169239986</v>
+        <v>0.0001727353154392403</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H22">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I22">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J22">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>2.750136707840221</v>
+        <v>0.112657333512</v>
       </c>
       <c r="R22">
-        <v>2.750136707840221</v>
+        <v>1.013916001608</v>
       </c>
       <c r="S22">
-        <v>0.0007449228180401795</v>
+        <v>2.594056126304643E-05</v>
       </c>
       <c r="T22">
-        <v>0.0007449228180401795</v>
+        <v>3.257433519367727E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H23">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I23">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J23">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>3.90808525574815</v>
+        <v>0.16070112836</v>
       </c>
       <c r="R23">
-        <v>3.90808525574815</v>
+        <v>1.44631015524</v>
       </c>
       <c r="S23">
-        <v>0.001058573515110626</v>
+        <v>3.700316113747916E-05</v>
       </c>
       <c r="T23">
-        <v>0.001058573515110626</v>
+        <v>4.646597126003523E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H24">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I24">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J24">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>41.35616423461478</v>
+        <v>1.801317921761334</v>
       </c>
       <c r="R24">
-        <v>41.35616423461478</v>
+        <v>16.211861295852</v>
       </c>
       <c r="S24">
-        <v>0.0112020432719418</v>
+        <v>0.000414772802151367</v>
       </c>
       <c r="T24">
-        <v>0.0112020432719418</v>
+        <v>0.0005208425580886102</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H25">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I25">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J25">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>6.752976966399109</v>
+        <v>0.27536193709</v>
       </c>
       <c r="R25">
-        <v>6.752976966399109</v>
+        <v>1.65217162254</v>
       </c>
       <c r="S25">
-        <v>0.001829162389502096</v>
+        <v>6.340504409181158E-05</v>
       </c>
       <c r="T25">
-        <v>0.001829162389502096</v>
+        <v>5.30797345586295E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H26">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I26">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J26">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>102.9716394468921</v>
+        <v>62.70996515360849</v>
       </c>
       <c r="R26">
-        <v>102.9716394468921</v>
+        <v>376.2597909216509</v>
       </c>
       <c r="S26">
-        <v>0.02789167666331615</v>
+        <v>0.0144396431386991</v>
       </c>
       <c r="T26">
-        <v>0.02789167666331615</v>
+        <v>0.01208819323291769</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H27">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I27">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J27">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>26.34271519146915</v>
+        <v>14.993586218079</v>
       </c>
       <c r="R27">
-        <v>26.34271519146915</v>
+        <v>134.942275962711</v>
       </c>
       <c r="S27">
-        <v>0.007135386971606191</v>
+        <v>0.003452434295379603</v>
       </c>
       <c r="T27">
-        <v>0.007135386971606191</v>
+        <v>0.00433532454565846</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H28">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I28">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J28">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>5.135870678900753</v>
+        <v>2.827482625548</v>
       </c>
       <c r="R28">
-        <v>5.135870678900753</v>
+        <v>25.447343629932</v>
       </c>
       <c r="S28">
-        <v>0.001391140756133987</v>
+        <v>0.0006510582487771606</v>
       </c>
       <c r="T28">
-        <v>0.001391140756133987</v>
+        <v>0.000817553229138772</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H29">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I29">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J29">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>7.29833554034631</v>
+        <v>4.03328957094</v>
       </c>
       <c r="R29">
-        <v>7.29833554034631</v>
+        <v>36.29960613846</v>
       </c>
       <c r="S29">
-        <v>0.001976882335419318</v>
+        <v>0.000928708251340165</v>
       </c>
       <c r="T29">
-        <v>0.001976882335419318</v>
+        <v>0.001166206604765484</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H30">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I30">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J30">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>77.23249199897674</v>
+        <v>45.209619010962</v>
       </c>
       <c r="R30">
-        <v>77.23249199897674</v>
+        <v>406.886571098658</v>
       </c>
       <c r="S30">
-        <v>0.02091977661333261</v>
+        <v>0.01041000044180815</v>
       </c>
       <c r="T30">
-        <v>0.02091977661333261</v>
+        <v>0.01307214752677112</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.297097</v>
+      </c>
+      <c r="H31">
+        <v>33.891291</v>
+      </c>
+      <c r="I31">
+        <v>0.03147318916424743</v>
+      </c>
+      <c r="J31">
+        <v>0.03281162449596041</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.611755</v>
+      </c>
+      <c r="N31">
+        <v>1.22351</v>
+      </c>
+      <c r="O31">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P31">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q31">
+        <v>6.911055575235</v>
+      </c>
+      <c r="R31">
+        <v>41.46633345140999</v>
+      </c>
+      <c r="S31">
+        <v>0.001591344788243243</v>
+      </c>
+      <c r="T31">
+        <v>0.001332199356708884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>23.139818</v>
+      </c>
+      <c r="H32">
+        <v>46.279636</v>
+      </c>
+      <c r="I32">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J32">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.5509805</v>
+      </c>
+      <c r="N32">
+        <v>11.101961</v>
+      </c>
+      <c r="O32">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P32">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q32">
+        <v>128.448678491549</v>
+      </c>
+      <c r="R32">
+        <v>513.7947139661959</v>
+      </c>
+      <c r="S32">
+        <v>0.02957668808318155</v>
+      </c>
+      <c r="T32">
+        <v>0.01650681240549656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>23.139818</v>
+      </c>
+      <c r="H33">
+        <v>46.279636</v>
+      </c>
+      <c r="I33">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J33">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.327207</v>
+      </c>
+      <c r="N33">
+        <v>3.981621</v>
+      </c>
+      <c r="O33">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P33">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q33">
+        <v>30.71132842832599</v>
+      </c>
+      <c r="R33">
+        <v>184.267970569956</v>
+      </c>
+      <c r="S33">
+        <v>0.007071613287204869</v>
+      </c>
+      <c r="T33">
+        <v>0.00592002358113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>23.139818</v>
+      </c>
+      <c r="H34">
+        <v>46.279636</v>
+      </c>
+      <c r="I34">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J34">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.250284</v>
+      </c>
+      <c r="N34">
+        <v>0.750852</v>
+      </c>
+      <c r="O34">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P34">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q34">
+        <v>5.791526208312</v>
+      </c>
+      <c r="R34">
+        <v>34.749157249872</v>
+      </c>
+      <c r="S34">
+        <v>0.001333561124959998</v>
+      </c>
+      <c r="T34">
+        <v>0.001116394942145077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>23.139818</v>
+      </c>
+      <c r="H35">
+        <v>46.279636</v>
+      </c>
+      <c r="I35">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J35">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.07106</v>
+      </c>
+      <c r="O35">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P35">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q35">
+        <v>8.26137782236</v>
+      </c>
+      <c r="R35">
+        <v>49.56826693416</v>
+      </c>
+      <c r="S35">
+        <v>0.001902270991486545</v>
+      </c>
+      <c r="T35">
+        <v>0.001592492217819099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="H31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="I31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="J31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N31">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O31">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P31">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q31">
-        <v>12.61116085543932</v>
-      </c>
-      <c r="R31">
-        <v>12.61116085543932</v>
-      </c>
-      <c r="S31">
-        <v>0.00341595436198136</v>
-      </c>
-      <c r="T31">
-        <v>0.00341595436198136</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>23.139818</v>
+      </c>
+      <c r="H36">
+        <v>46.279636</v>
+      </c>
+      <c r="I36">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J36">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N36">
+        <v>12.005638</v>
+      </c>
+      <c r="O36">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P36">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q36">
+        <v>92.60275943129467</v>
+      </c>
+      <c r="R36">
+        <v>555.6165565877681</v>
+      </c>
+      <c r="S36">
+        <v>0.02132278014461239</v>
+      </c>
+      <c r="T36">
+        <v>0.01785043329500985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>23.139818</v>
+      </c>
+      <c r="H37">
+        <v>46.279636</v>
+      </c>
+      <c r="I37">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J37">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.611755</v>
+      </c>
+      <c r="N37">
+        <v>1.22351</v>
+      </c>
+      <c r="O37">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P37">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q37">
+        <v>14.15589936059</v>
+      </c>
+      <c r="R37">
+        <v>56.62359744236</v>
+      </c>
+      <c r="S37">
+        <v>0.003259547897587954</v>
+      </c>
+      <c r="T37">
+        <v>0.001819160601109038</v>
       </c>
     </row>
   </sheetData>
